--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC71-EQUIPO DHS DCS ACERO # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC71-EQUIPO DHS DCS ACERO # 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62128FEE-46D4-491B-8E9D-E30EEF62C5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0E9A9F0F-6160-4813-975C-AC7558B8B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="195" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
   <si>
     <t>NOTA DE ENTREGA</t>
   </si>
@@ -419,9 +408,6 @@
     <t xml:space="preserve">PLACA BLOQ. DHS 4.5/5.0mm*2 ORIF. ACERO </t>
   </si>
   <si>
-    <t>210734185</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLACA BLOQ. DHS 4.5/5.0mm*4 ORIF. ACERO </t>
   </si>
   <si>
@@ -515,9 +501,6 @@
     <t>TORNILLO DESLIZANTE DHS/DCS 80mm ACERO</t>
   </si>
   <si>
-    <t>201124667</t>
-  </si>
-  <si>
     <t>TORNILLO DESLIZANTE DHS/DCS 85mm ACERO</t>
   </si>
   <si>
@@ -551,9 +534,6 @@
     <t>190906305</t>
   </si>
   <si>
-    <t>190906311</t>
-  </si>
-  <si>
     <t>SF-500.052</t>
   </si>
   <si>
@@ -732,6 +712,9 @@
   </si>
   <si>
     <t>TORNILLOS ESPONJOSOS 6.5*80mm ROSCA LARGA ACERO</t>
+  </si>
+  <si>
+    <t>200112565</t>
   </si>
 </sst>
 </file>
@@ -739,9 +722,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -906,7 +889,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +929,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -1021,9 +1016,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1142,7 +1137,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,7 +1157,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1216,7 +1211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,6 +1225,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1306,9 +1308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1346,7 +1348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1452,7 +1454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,7 +1596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1607,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:C75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1692,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="30">
         <f ca="1">NOW()</f>
-        <v>45385.747854398149</v>
+        <v>45401.762592476851</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>51</v>
@@ -1891,14 +1893,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="77" t="s">
-        <v>126</v>
+      <c r="B24" s="85">
+        <v>2306000762</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D24" s="77">
         <v>1</v>
@@ -1918,7 +1920,7 @@
         <v>210126806</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="77">
         <v>2</v>
@@ -1935,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>129</v>
       </c>
       <c r="D26" s="77">
         <v>1</v>
@@ -1955,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>131</v>
       </c>
       <c r="D27" s="77">
         <v>1</v>
@@ -1972,13 +1974,13 @@
     </row>
     <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="C28" s="55" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>134</v>
       </c>
       <c r="D28" s="77">
         <v>1</v>
@@ -1995,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>135</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>136</v>
       </c>
       <c r="D29" s="77">
         <v>1</v>
@@ -2012,13 +2014,13 @@
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="C30" s="55" t="s">
         <v>138</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>139</v>
       </c>
       <c r="D30" s="77">
         <v>1</v>
@@ -2035,10 +2037,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="77">
         <v>1</v>
@@ -2052,7 +2054,7 @@
     </row>
     <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="55"/>
@@ -2072,7 +2074,7 @@
         <v>200416969</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="77">
         <v>1</v>
@@ -2092,7 +2094,7 @@
         <v>200416969</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="77">
         <v>1</v>
@@ -2106,13 +2108,13 @@
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="77">
         <v>200416970</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="77">
         <v>1</v>
@@ -2132,7 +2134,7 @@
         <v>200113467</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="77">
         <v>1</v>
@@ -2152,7 +2154,7 @@
         <v>200113466</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="77">
         <v>1</v>
@@ -2166,13 +2168,13 @@
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="77">
         <v>210126807</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="77">
         <v>1</v>
@@ -2186,7 +2188,7 @@
     </row>
     <row r="39" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" s="77"/>
       <c r="C39" s="55"/>
@@ -2203,10 +2205,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>150</v>
       </c>
       <c r="D40" s="77">
         <v>1</v>
@@ -2223,10 +2225,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="55" t="s">
         <v>151</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>152</v>
       </c>
       <c r="D41" s="77">
         <v>1</v>
@@ -2243,10 +2245,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="55" t="s">
         <v>153</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>154</v>
       </c>
       <c r="D42" s="77">
         <v>1</v>
@@ -2263,10 +2265,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="77">
         <v>1</v>
@@ -2283,10 +2285,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="55" t="s">
         <v>156</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>157</v>
       </c>
       <c r="D44" s="77">
         <v>1</v>
@@ -2299,14 +2301,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="77" t="s">
-        <v>158</v>
+      <c r="B45" s="85">
+        <v>201124667</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="77">
         <v>1</v>
@@ -2323,10 +2325,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D46" s="77">
         <v>1</v>
@@ -2340,13 +2342,13 @@
     </row>
     <row r="47" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="55" t="s">
         <v>162</v>
-      </c>
-      <c r="B47" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>164</v>
       </c>
       <c r="D47" s="77">
         <v>1</v>
@@ -2360,13 +2362,13 @@
     </row>
     <row r="48" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="77">
         <v>1</v>
@@ -2383,10 +2385,10 @@
         <v>20</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="77">
         <v>1</v>
@@ -2400,7 +2402,7 @@
     </row>
     <row r="50" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B50" s="77"/>
       <c r="C50" s="55"/>
@@ -2420,7 +2422,7 @@
         <v>79</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D51" s="3">
         <v>6</v>
@@ -2440,7 +2442,7 @@
         <v>200112170</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="3">
         <v>6</v>
@@ -2457,10 +2459,10 @@
         <v>81</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3">
         <v>6</v>
@@ -2473,14 +2475,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="59">
-        <v>200112172</v>
+      <c r="B54" s="86" t="s">
+        <v>228</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="3">
         <v>6</v>
@@ -2500,7 +2502,7 @@
         <v>200112173</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D55" s="3">
         <v>6</v>
@@ -2520,7 +2522,7 @@
         <v>210936631</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D56" s="3">
         <v>6</v>
@@ -2540,7 +2542,7 @@
         <v>210936632</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" s="3">
         <v>6</v>
@@ -2560,7 +2562,7 @@
         <v>210936633</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3">
         <v>6</v>
@@ -2580,7 +2582,7 @@
         <v>210936633</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
@@ -2600,7 +2602,7 @@
         <v>210936633</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="3">
         <v>6</v>
@@ -2620,7 +2622,7 @@
         <v>210936633</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="3">
         <v>6</v>
@@ -2640,7 +2642,7 @@
         <v>210936633</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="3">
         <v>6</v>
@@ -2660,7 +2662,7 @@
         <v>210936633</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="3">
         <v>6</v>
@@ -2680,7 +2682,7 @@
         <v>210936633</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="3">
         <v>6</v>
@@ -2694,7 +2696,7 @@
     </row>
     <row r="65" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B65" s="59"/>
       <c r="C65" s="55"/>
@@ -2708,13 +2710,13 @@
     </row>
     <row r="66" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B66" s="77">
         <v>2306000740</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D66" s="3">
         <v>2</v>
@@ -2725,13 +2727,13 @@
     </row>
     <row r="67" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B67" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
@@ -2751,7 +2753,7 @@
         <v>41</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
@@ -2771,7 +2773,7 @@
         <v>190906311</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="3">
         <v>4</v>
@@ -2791,7 +2793,7 @@
         <v>43</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -2811,7 +2813,7 @@
         <v>190906305</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
@@ -2831,7 +2833,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -2844,14 +2846,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="77">
+      <c r="B73" s="85">
         <v>190906309</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="3">
         <v>4</v>
@@ -2864,14 +2866,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="77" t="s">
-        <v>170</v>
+      <c r="B74" s="85">
+        <v>190906311</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
@@ -2891,7 +2893,7 @@
         <v>200112208</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D75" s="3">
         <v>4</v>
@@ -2911,7 +2913,7 @@
         <v>45</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76" s="3">
         <v>4</v>
@@ -2931,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D77" s="3">
         <v>4</v>
@@ -2951,7 +2953,7 @@
         <v>41</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -2971,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
@@ -2991,7 +2993,7 @@
         <v>47</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D80" s="3">
         <v>4</v>
@@ -3005,13 +3007,13 @@
     </row>
     <row r="81" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D81" s="3">
         <v>4</v>
@@ -3031,7 +3033,7 @@
         <v>45</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -3051,7 +3053,7 @@
         <v>48</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D83" s="3">
         <v>4</v>
@@ -3071,7 +3073,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D84" s="3">
         <v>4</v>
@@ -3091,7 +3093,7 @@
         <v>210329237</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D85" s="3">
         <v>4</v>
@@ -3111,7 +3113,7 @@
         <v>46</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
@@ -3131,7 +3133,7 @@
         <v>41</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D87" s="3">
         <v>4</v>
@@ -3145,7 +3147,7 @@
     </row>
     <row r="88" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B88" s="77"/>
       <c r="C88" s="55"/>
@@ -3159,13 +3161,13 @@
     </row>
     <row r="89" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B89" s="77">
         <v>210632486</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D89" s="3">
         <v>6</v>
@@ -3179,13 +3181,13 @@
     </row>
     <row r="90" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B90" s="77">
         <v>210632486</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D90" s="3">
         <v>6</v>
@@ -3199,13 +3201,13 @@
     </row>
     <row r="91" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B91" s="77">
         <v>210632486</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D91" s="3">
         <v>6</v>
@@ -3219,13 +3221,13 @@
     </row>
     <row r="92" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B92" s="77">
         <v>200113467</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D92" s="3">
         <v>4</v>
@@ -3239,13 +3241,13 @@
     </row>
     <row r="93" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="77" t="s">
-        <v>194</v>
-      </c>
       <c r="C93" s="55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D93" s="3">
         <v>6</v>
@@ -3259,13 +3261,13 @@
     </row>
     <row r="94" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B94" s="77">
         <v>210632486</v>
       </c>
       <c r="C94" s="55" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
@@ -3279,13 +3281,13 @@
     </row>
     <row r="95" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B95" s="77">
         <v>210632486</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D95" s="3">
         <v>6</v>
@@ -3299,7 +3301,7 @@
     </row>
     <row r="96" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B96" s="77"/>
       <c r="C96" s="55"/>
@@ -3316,10 +3318,10 @@
         <v>77</v>
       </c>
       <c r="B97" s="77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D97" s="3">
         <v>4</v>
@@ -3856,7 +3858,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B23:B47 B49:B65 B48 B68:B83 B67 B85:B97 B84" numberStoredAsText="1"/>
+    <ignoredError sqref="B23 B49:B53 B48 B68:B72 B67 B85:B97 B84 B25:B44 B46:B47 B55:B65 B75:B83" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
